--- a/data/trans_bre/IMC_inf_MED_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_MED_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,5</t>
+          <t>-22,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-45,19%</t>
+          <t>-43,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 25,11</t>
+          <t>-16,59; 26,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 14,87</t>
+          <t>-27,42; 16,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 10,58</t>
+          <t>-52,36; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 65,55</t>
+          <t>-25,71; 63,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 36,43</t>
+          <t>-44,31; 38,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 36,04</t>
+          <t>-77,97; 30,55</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>-15,37%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -3,32</t>
+          <t>-20,14; -3,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -1,64</t>
+          <t>-18,55; -2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 4,73</t>
+          <t>-22,38; 6,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -5,44</t>
+          <t>-30,39; -6,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,52; -3,12</t>
+          <t>-34,2; -4,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 11,3</t>
+          <t>-39,35; 14,78</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>-8,19%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 9,96</t>
+          <t>-9,86; 10,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -3,81</t>
+          <t>-22,84; -3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 7,19</t>
+          <t>-17,51; 10,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 20,3</t>
+          <t>-17,27; 20,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -8,55</t>
+          <t>-41,35; -7,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 19,9</t>
+          <t>-35,29; 26,27</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,54</t>
+          <t>-18,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,64%</t>
+          <t>-57,49%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -5,42</t>
+          <t>-23,21; -6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 0,97</t>
+          <t>-16,62; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,62; -5,92</t>
+          <t>-32,3; -7,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,69; -14,15</t>
+          <t>-50,59; -15,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 5,43</t>
+          <t>-44,11; 3,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,08; -22,47</t>
+          <t>-81,78; -27,44</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>-13,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-32,43%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -3,91</t>
+          <t>-14,05; -4,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -5,29</t>
+          <t>-15,38; -5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -4,92</t>
+          <t>-24,25; -4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -7,57</t>
+          <t>-24,96; -7,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,01; -11,86</t>
+          <t>-32,25; -13,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,34; -12,3</t>
+          <t>-56,09; -13,85</t>
         </is>
       </c>
     </row>
